--- a/rtu/eagle/BOMX.xlsx
+++ b/rtu/eagle/BOMX.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t xml:space="preserve">PCB</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">BUTTON CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR1220</t>
   </si>
 </sst>
 </file>
@@ -150,10 +153,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -210,6 +213,14 @@
       </c>
       <c r="E4" s="2"/>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/rtu/eagle/BOMX.xlsx
+++ b/rtu/eagle/BOMX.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">PCB</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">FR4 1.6MM 68x62MM</t>
+    <t xml:space="preserve">FR4 1.6MM 76.2X65.4MM (3000X2575MIL)</t>
   </si>
   <si>
     <t xml:space="preserve">ANTENNA</t>
@@ -40,7 +40,10 @@
     <t xml:space="preserve">ENCLOSURE</t>
   </si>
   <si>
-    <t xml:space="preserve">BUTTON CAP</t>
+    <t xml:space="preserve">AK-C-A4 28X66X104MM (ORIGINAL 28X95X104MM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATTERY</t>
   </si>
   <si>
     <t xml:space="preserve">CR1220</t>
@@ -54,7 +57,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -75,6 +78,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +127,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -129,6 +137,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -153,10 +165,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -200,25 +212,21 @@
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
